--- a/DateBase/orders/Dang Nguyen_2025-8-19.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-8-19.xlsx
@@ -776,6 +776,9 @@
       <c r="C41" t="str">
         <v>247_苏芬_Sofine_Rosa rugosa Thunb._10stems</v>
       </c>
+      <c r="F41" t="str">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -837,7 +840,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>020201510105202020201515203010515151510151087510614513861015151051010</v>
+        <v>020201510105202020201515203010515151510151087510614513861015151051015</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-8-19.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-8-19.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -780,9 +780,89 @@
         <v>5</v>
       </c>
     </row>
+    <row r="42">
+      <c r="C42" t="str">
+        <v>70_朝霞mini_undefined_Gerbera L._20stems</v>
+      </c>
+      <c r="F42" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="C43" t="str">
+        <v>454_蓝星花_tweedia blue_undefined_1bunch</v>
+      </c>
+      <c r="F43" t="str">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>6</v>
+      </c>
+      <c r="C44" t="str">
+        <v>144_高原红_High Plateau Red_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F44" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="C45" t="str">
+        <v>238_苏菲宝贝_undefined_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F45" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="C46" t="str">
+        <v>277_草莓杏仁饼_undefined_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F46" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="C47" t="str">
+        <v>548_白星花_tweedia white_undefined_1bunch</v>
+      </c>
+      <c r="F47" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>7</v>
+      </c>
+      <c r="C48" t="str">
+        <v>325_小盼草_Northern Sea Oats_undefined_1bunch</v>
+      </c>
+      <c r="F48" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="C49" t="str">
+        <v>592_进口春兰叶_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F49" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="C50" t="str">
+        <v>512_松虫草粉_scabiosa pink_undefined_1bunch</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="C51" t="str">
+        <v>314_松虫草花边黑_scabiosa_undefined_1bunch</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L41"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L51"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -840,7 +920,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>020201510105202020201515203010515151510151087510614513861015151051015</v>
+        <v>0202015101052020202015152030105151515101510875106145138610151510510151591581515102000</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-8-19.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-8-19.xlsx
@@ -854,6 +854,9 @@
       <c r="C50" t="str">
         <v>512_松虫草粉_scabiosa pink_undefined_1bunch</v>
       </c>
+      <c r="F50" t="str">
+        <v>1</v>
+      </c>
     </row>
     <row r="51">
       <c r="C51" t="str">
@@ -920,7 +923,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0202015101052020202015152030105151515101510875106145138610151510510151591581515102000</v>
+        <v>0202015101052020202015152030105151515101510875106145138610151510510151591581515102010</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-8-19.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-8-19.xlsx
@@ -855,7 +855,7 @@
         <v>512_松虫草粉_scabiosa pink_undefined_1bunch</v>
       </c>
       <c r="F50" t="str">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51">
@@ -923,7 +923,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0202015101052020202015152030105151515101510875106145138610151510510151591581515102010</v>
+        <v>02020151010520202020151520301051515151015108751061451386101515105101515915815151020100</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-8-19.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-8-19.xlsx
@@ -862,6 +862,9 @@
       <c r="C51" t="str">
         <v>314_松虫草花边黑_scabiosa_undefined_1bunch</v>
       </c>
+      <c r="F51" t="str">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -923,7 +926,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>02020151010520202020151520301051515151015108751061451386101515105101515915815151020100</v>
+        <v>02020151010520202020151520301051515151015108751061451386101515105101515915815151020101</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-8-19.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-8-19.xlsx
@@ -863,7 +863,7 @@
         <v>314_松虫草花边黑_scabiosa_undefined_1bunch</v>
       </c>
       <c r="F51" t="str">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -926,7 +926,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>02020151010520202020151520301051515151015108751061451386101515105101515915815151020101</v>
+        <v>020201510105202020201515203010515151510151087510614513861015151051015159158151510201015</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-8-19.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-8-19.xlsx
@@ -928,6 +928,9 @@
       <c r="G2" t="str">
         <v>020201510105202020201515203010515151510151087510614513861015151051015159158151510201015</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
